--- a/2023-NHA-TRANG-Data-Analytics-for-Managers/KNIME/3-TDD/data/data.xlsx
+++ b/2023-NHA-TRANG-Data-Analytics-for-Managers/KNIME/3-TDD/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Lectures\2023-NHA-TRANG-Data-Analytics-for-Managers\Kiem-Dinh-Cong-Trinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Lectures\2023-NHA-TRANG-Data-Analytics-for-Managers\KNIME\3-TDD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD2A03B-A0B4-48DA-9DE7-66660DA13DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78CADB4-6FD4-42DC-8CCE-D603EBC3C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8550" windowWidth="29040" windowHeight="15720" tabRatio="885" xr2:uid="{5B46DFC2-A924-4928-B593-8EAD80D644F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="885" xr2:uid="{5B46DFC2-A924-4928-B593-8EAD80D644F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Capex" sheetId="1" r:id="rId1"/>
@@ -62,19 +62,10 @@
     </comment>
     <comment ref="A241" authorId="1" shapeId="0" xr:uid="{AF7C44C0-B91B-4A18-AEBB-7B4DE46BBDCF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Federizo, Joseph</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -3869,7 +3860,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -4061,7 +4052,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4124,7 +4115,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4449,13 +4440,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -4464,6 +4448,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4828,8 +4819,8 @@
   </sheetPr>
   <dimension ref="A1:AL626"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15"/>
@@ -66569,14 +66560,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="32" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="526" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="527" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="528" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="526" operator="equal">
-      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W1048576">
@@ -66717,11 +66708,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R131 R133:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 E2:F1048576 N2:N1048576 G241:G1048576 K133:K1048576 J241:J1048576 T2:T131 T133:T1048576 Q133:R138 Q139:Q177 R139:R1048576 P178:Q1048576 Q2:R131 P133:P177 P2:P119 O2:O131 O133:O1048576 C2:C131 C133:C1048576 H133:I1048576 G2:K131" xr:uid="{00000000-0002-0000-0000-000005000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 E2:F1048576 N2:N1048576 G241:G1048576 K133:K1048576 J241:J1048576 T2:T131 T133:T1048576 Q133:R138 Q139:Q177 R133:R1048576 P178:Q1048576 Q2:R131 P133:P177 P2:P119 O2:O131 O133:O1048576 C2:C131 C133:C1048576 H133:I1048576 G2:K131" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -66753,6 +66741,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060FFA845446F6E41A90AC623CC3BF6EB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="21a224a1d6007ae375111b8707cb7b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b1d61d8-d275-4efc-bd88-5af6b80eb412" xmlns:ns3="92b0f251-fea0-4cb9-8bc9-a48d28ef523d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b41acfcee76e684d3b29784c4b3d1936" ns2:_="" ns3:_="">
     <xsd:import namespace="6b1d61d8-d275-4efc-bd88-5af6b80eb412"/>
@@ -66975,15 +66972,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26845DBB-2FBA-4248-8AFE-86388D7C1A0A}">
   <ds:schemaRefs>
@@ -66998,6 +66986,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AD7D2CB-1622-4044-85F7-3D23215FA6BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D56BC485-B7C3-4CF3-A1D0-D67F03F8F4C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67015,12 +67011,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AD7D2CB-1622-4044-85F7-3D23215FA6BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>